--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:10:05-06:00</t>
+    <t>2022-02-27T12:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -851,7 +851,7 @@
 WorkingListOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.SubmissionSet}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.SubmissionSet}
 </t>
   </si>
   <si>
@@ -874,7 +874,7 @@
     <t>Folders</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1126,79 +1126,87 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:38:24-06:00</t>
+    <t>2022-02-28T20:12:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1426,17 +1426,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1445,26 +1445,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.55078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.90625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentListsResponseMessage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1426,17 +1426,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1445,26 +1445,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.55078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.90625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
